--- a/biology/Mycologie/Boletus_rubellus/Boletus_rubellus.xlsx
+++ b/biology/Mycologie/Boletus_rubellus/Boletus_rubellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hortiboletus rubellus
 Hortiboletus rubellus, le Bolet framboise ou Bolet rougeâtre, anciennement Xerocomus rubellus, est une espèce de champignons (Fungi) basidiomycètes du genre Hortiboletus et de la famille des Boletaceae. Comestible moyen, il est caractérisé par son chapeau et son pied typiquement rouge framboise, la base de son pied piquetée de tout petits points orange rougeâtres à la coupe et son habitat souvent dans les jardins et autres zones herbeuses.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Hortiboletus rubellus (Krombh.) Simonini, Vizzini &amp; Gelardi. 2015
-Synonymes
-Boletus sanguineus With. 1792 (synonyme)
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hortiboletus rubellus (Krombh.) Simonini, Vizzini &amp; Gelardi. 2015
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Boletus_rubellus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_rubellus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boletus sanguineus With. 1792 (synonyme)
 Boletus versicolor Rostk. 1844 (synonyme)
 Leucobolites rubellus (Krombh.) Beck 1923 (synonyme)
 Suillus rubellus (Krombh.) Henn. 1898 (synonyme)
@@ -527,37 +579,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Boletus_rubellus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Boletus_rubellus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Hortiboletus rubellus, le Bolet framboise, sont les suivantes :
-Chapeau de 3 à 12 cm, feutré, typiquement rouge vif et subitement décoloré au bord, devenant finement fissurée à maturité[1].
-Hyménophore : tubes d'abord jaunes puis jaune olivâtre, en général nettement bleuissants. Pores concolores aux tubes[1]. Sporée brun olive.
-Stipe : 3 à 10 cm x 0,5 à 3 cm, jaune ou rouge, souvent bulbeux ; mycélium blanchâtre ou jaunâtre pâle[1].
-Chair : blanchâtre à jaune pâle, souvent jaunâtre à jaune orangé dans la moitié inférieure du pied, le plus souvent typiquement ponctuée de petits points rouge sang ou rouge orangé dans l'extrême base du pied. Saveur douce et odeur faible[1].
+Chapeau de 3 à 12 cm, feutré, typiquement rouge vif et subitement décoloré au bord, devenant finement fissurée à maturité.
+Hyménophore : tubes d'abord jaunes puis jaune olivâtre, en général nettement bleuissants. Pores concolores aux tubes. Sporée brun olive.
+Stipe : 3 à 10 cm x 0,5 à 3 cm, jaune ou rouge, souvent bulbeux ; mycélium blanchâtre ou jaunâtre pâle.
+Chair : blanchâtre à jaune pâle, souvent jaunâtre à jaune orangé dans la moitié inférieure du pied, le plus souvent typiquement ponctuée de petits points rouge sang ou rouge orangé dans l'extrême base du pied. Saveur douce et odeur faible.
 </t>
         </is>
       </c>
